--- a/mongodb/data/recetas.xlsx
+++ b/mongodb/data/recetas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,6 +1008,462 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>65209ca6bf33e914a4910126</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Galleta cookie con chips de chocolate al microondas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>El primer ingrediente es una cucharada de mantequilla. Se derrite en el microondas durante 10 segundos.
+Una vez derretida la mantequilla, se le añade una cucharada de azúcar granulado y una cucharada de azúcar moreno (o azúcar blanco como sustituto). Mezclar bien.
+Añadir una llema de huevo, una pizca de sal y opcionalmente media cucharadita de esencia de vainilla. Mezclar nuevamente.
+Agregar dos cucharadas de chips de chocolate y mezclar.
+Finalmente, añadir tres cucharadas de harina de trigo (equivalente a un cuarto de taza) y mezclar por última vez.
+Colocar la mezcla en un recipiente de cerámica o en una taza y llevar al microondas durante 60 segundos a máxima potencia.
+Después de un minuto, la galleta estará lista. Puedes decorarla a tu gusto y disfrutar.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'mantequilla', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'azúcar granulado', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'azúcar moreno', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'azúcar blanco', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'yema de huevo', 'Cantidad': '1'}, {'Ingrediente': 'sal', 'Cantidad': '1 pizca'}, {'Ingrediente': 'esencia de vainilla', 'Cantidad': 'media cucharadita'}, {'Ingrediente': 'chips de chocolate', 'Cantidad': '2 cucharadas'}, {'Ingrediente': 'harina de trigo', 'Cantidad': '3 cucharadas'}]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>static/img/vaQBCk9M6ew.jpg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>652c630450c57c5a7b7b2f36</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Galletas de nutella</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Poner la mantequilla a temperatura ambiente en un recipiente y añadir el azúcar. Batir con varillas hasta obtener una mezcla blanquecina.
+Añadir la esencia y los huevos a temperatura ambiente. Mezclar nuevamente.
+Mezclar la levadura con la harina y añadir a la mezcla anterior tamizándolo. Integrar con una espátula o lengua pastelera.
+Precalentar el horno a 175 grados.
+Añadir trozos de chocolate a la masa y mezclar.
+Coger una cucharadita de masa y formar una bolita en la palma de la mano. Aplanarla y colocar una cucharadita de nutella en el centro. Cerrar la masa alrededor de la nutella.
+Refrigerar la masa durante 10 minutos en el frigorífico.
+Colocar las galletas en una bandeja de horno con papel para hornear.
+Hornear las galletas a 175 grados por arriba y por abajo durante 12 minutos.
+Dejar enfriar las galletas en una rejilla.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'harina de trigo', 'Cantidad': '220 gramos o 2 tazas'}, {'Ingrediente': 'mantequilla', 'Cantidad': '115 gramos o media taza'}, {'Ingrediente': 'huevos', 'Cantidad': '2'}, {'Ingrediente': 'azúcar', 'Cantidad': '150 gramos o 2 tazas'}, {'Ingrediente': 'chips de chocolate', 'Cantidad': '150 gramos o 1 taza'}, {'Ingrediente': 'crema de cacahuetes', 'Cantidad': '115 gramos o media taza'}, {'Ingrediente': 'levadura química', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'esencia de vainilla', 'Cantidad': '1 cucharada'}, {'Ingrediente': 'nutella', 'Cantidad': 'al gusto'}]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>static/img/KkflNZ2qwLg.jpg</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6530a7dbb638d23410c0da4d</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-0NQJprb4aQ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Guisado de Bistec</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cortar el bistec en tiras
+Sazonar las tiras de bistec con sal y pimienta y dejar reposar
+Preparar la salsa de jitomate: asar los jitomates, quitarles el pedúnculo y agregarlos a la licuadora junto con la cebolla, ajos, chiles chipotle y agua
+Freír la carne en aceite caliente hasta sellarla
+Agregar la salsa de jitomate a la carne y sazonar con sal
+Cocinar a fuego medio-bajo durante 35 minutos
+Agregar los nopales y el pasote y calentar
+Servir el guisado de bistec acompañado de frijoles, arroz y tortillas de maíz recién hechas
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'bistec de 10.000', 'Cantidad': 'aproximadamente 700 gramos o una y media libras'}, {'Ingrediente': 'sal', 'Cantidad': 'al gusto'}, {'Ingrediente': 'pimienta', 'Cantidad': 'al gusto'}, {'Ingrediente': 'jitomate roma o saladete maduro', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'cebolla chica', 'Cantidad': 'un cuarto'}, {'Ingrediente': 'dientes de ajo', 'Cantidad': 'dos'}, {'Ingrediente': 'chiles chipotle de lata', 'Cantidad': 'al gusto'}, {'Ingrediente': 'pales ya cosicinaba', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'ramitas de pasote', 'Cantidad': 'al gusto'}, {'Ingrediente': 'aceite', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'agua', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'nopales', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'frijoles', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'arroz', 'Cantidad': 'cantidad necesaria'}, {'Ingrediente': 'tortillas de maíz', 'Cantidad': 'cantidad necesaria'}]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>static/img/-0NQJprb4aQ.jpg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hola, a Jauja Cocina Mexicana, nombre es Janette, el día de hoy vamos a hacer un guisado de bistec perfecto para las comidas del diario, y riquísimo. Les los ingredientes. A esta receta gusta usar bistec de 10.000, porque sale suave. En Estados Unidos consiguen choc y hay cortarlo en tiras. Y estoy utilizando aproximadamente 700 gramos o una y media libras. Las asonamos con sal y pimienta y la vamos a dejar reposar por menos media hora. Y esto es una sal muerenceco ayuda a la carne quede mucho más suavecita. Y para la salsa necesitamos jitomate roma o saladete maduro, un cuarto de cebolla chica, dos dientes de ajo y chiles chipotle de lata a los cuales ya les removilas semillas porque la salsa la vamos a colar. Y para quede sabroso y más gendidor vamos a agregar unos pales ya cosicinaba dejándolo sudar con cebolla, ajo, sal y unas cascaras de tomate verde ayudan mucho a cortar la baba. Por último vamos a aromatizar con unas ramitas de pasote y asasonar con sal. Ahora sí, vamos a la estufa. En un conmal caliente asamos los jitomates y conforme van estando listos los retiramos. Una vez los jitomates sentivieron, removemos el pedúnculo porque muele la licuadora. Los agregamos al vaso de la licuadora con el pedazo de cebolla cortado en trozos, los dientes de ajo picados, los chiles chipotle, agua y licuamos. Y una vez queda molido reservamos. En aceite caliente comenzamos a freír la carne alumbre alta. Y después de 6 a 7 minutos la carne ya se selló bajamos la alumbre y la cubrimos. Y debes en chequen la carne tenga jugo y le hace falta agreguen un poco de agua para generar suficiente vapor. Han transcurrido 30 minutos desde cubri la carne y la he estado cocinando alumbre media baja. El líquido ya casi se evaporó es hora de agregar la salsa acabamos de hacer y sazonamos con sal. Desde añadí la salsa el guisado se ha estado cocinando alumbre media baja por 35 minutos. Vamos agregar los nopales y el pasote. Y una vez los nopales ya se calentaron y el pasote ya suelto todo su sabor este lizado de biste está listo. Y vamos a acompañar con frijoles y arroz ojo. Y podían faltar las tortillas de maíz, calientitas, recién hechas. Ahora sí vamos a ver qué suavecito quedó. Miren eres asesolito. Ahí va otro. Super suavecito. Muchas gracias por haber estado con nosotros en esta receta. esperamos en la próxima. ¿Estás entrando con singularos de gría al taco? Es soy vegano. Vegano comiendo carne? No, no. Megano era un tojo. El guisadito de biste con su taco. Qué ocurre en asimprilatorias. buen provecho. Vendiciones por seres de sus familias. buen provecho.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6530aab2b638d23410c0da4e</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6-Aqun5YTAc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cerdo agridúbese</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colocar una olla al fuego con un poco de aceite.
+Saltear el cerdo con sal y pimienta hasta que esté dorado.
+En la licuadora, mezclar el jubo en aranja, la salsa de soya, el azúcar marmorena, el vinagre y el resto de los ingredientes exceptuando el pimentón, la cebolla y la fecula.
+Agregar el pimentón y la piña al cerdo dorado y dejar por 5 minutos.
+Agregar el licuado a la preparación y dejar cocinar por 20 minutos, volteando de vez en cuando.
+Disolver la fecula de maíz en un poco de agua y agregar a la salsa.
+Cocinar por 5 minutos más, tapado.
+Apagar el fuego y servir.
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'cerdo cortado en pulianas', 'Cantidad': '1'}, {'Ingrediente': 'sal', 'Cantidad': 'al gusto'}, {'Ingrediente': 'pimienta', 'Cantidad': 'al gusto'}, {'Ingrediente': 'una taza de jubo en aranja', 'Cantidad': '1'}, {'Ingrediente': 'media cebolla blanca', 'Cantidad': '1/2'}, {'Ingrediente': '3 centímetros de jingirre', 'Cantidad': '3'}, {'Ingrediente': '3 dientes de ajo', 'Cantidad': '3'}, {'Ingrediente': 'media taza de azúcar marmorena', 'Cantidad': '1/2'}, {'Ingrediente': 'media taza de vinagre', 'Cantidad': '1/2'}, {'Ingrediente': 'media taza de salsa de soya', 'Cantidad': '1/2'}, {'Ingrediente': '3 cucharadas de fecula de maíz', 'Cantidad': '3'}, {'Ingrediente': 'un pimentón rojo', 'Cantidad': '1'}, {'Ingrediente': 'un ober de cortado en jubos', 'Cantidad': '1'}, {'Ingrediente': 'una taza de piña cortada en jubos', 'Cantidad': '1'}]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>static/img/6-Aqun5YTAc.jpg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hola de Elito dulce y salado, hoy les quiero enseñar a preparar un delicioso platillo, un cerdo a gridurse con el cual ustedes podrán lucirse en sus neces, es una preparación realmente deliciosa, de hacer y económica, así vamos a la receta. Para nuestro cerdo a gridurse necesitaremos cerdo cortado en pulianas, sal, pimienta, una taza de jubo en aranja, media cebolla blanca, 3 centímetros de jingirre, 3 dientes de ajo, media taza de azúcar marmorena, media taza de vinagre, media taza de salsa de soya, 3 cucharadas de fecula de maíz, un pimentón rojo y un ober de cortado en jubos y una taza de piña cortada en jubos. Empezaremos nuestra preparación colocando una oya al fuego a la cual vamos a agregar un poco de aceite para así poder saltear el cerdo, el cerdo le vamos a agregar un poco de sal y pimienta y dejamos hasta esté dorado. Mientras el cerdo termina a ese llar se llevaremos a la licuadora y resto de los ingredientes exceptuando el pimentón, la cebolla y la fecula. Empezaremos por el cubo en aranja, la salsa de soya, el azúcar marmorena, el vinagre y el resuelo de ingredientes y procederemos al igual. Ya el cerdo hacéllado y ha tomado un color dorado, ahora agregaremos el pimentón en jubos y la piña y dejaremos un rato unos 5 minutos para la piña suelte su cubo y luego le agregaremos el licuado ya tenemos listo. Ya han pasado 5 minutos, ahora voy a agregarle el licuado ya tenía listo, dejaremos el hierba y luego taparé y dejaremos por unos 20 minutos más dandole vuelta de vez en cuando. Ahora vamos a disolver la fecula de maíz en un poquito de agua para luego agregársela a la preparación. Ya disuelta la fecula de maíz en el agua, se la agregaré a la salsa para darles peso. Esperaremos a hierba y luego la taparemos por espacio de unos 5 minutos y ya estará lista nuestra preparación de cerdo agridúbese. Ya está listo nuestro cerdo, vamos a pagar el fuego y vamos a inflatar. He preparado un delicioso a respondar beja le va a nuestro esquisito cerdo agridúbese. Así procedo a inflatar, espero preparen en sus casas disfruten con toda su familia. te gustó esta receta regala a online y cualquier inquietud, escriban en los y con gusto te contestaremos. Bueno amigos, hasta un próximo vídeo. olvides suscribirte a canal, activar la campanita de notificaciones y regalarme un like.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6530ab68b638d23410c0da4f</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=o5QA6xBa45Q</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tortitas de atún</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Observar los ingredientes: 2 latas de atún, 2 tazas de amaranto, 6 huevos, 1 kilo de tomate verde, la mitad de una cebolla, unas ramitas de cilantro, 1 diente de ajo, chiles verdes, sal y consomé de pollo al gusto.
+Agregar las 2 latas de atún y las 2 tazas de amaranto, mezclar bien.
+Agregar los huevos y mezclar nuevamente.
+Calentar aceite en una estufa para freír las tortitas de atún.
+Formar las tortitas con la mezcla y freírlas en el aceite caliente.
+Colocar las tortitas en papel absorbente para quitar el exceso de grasa.
+Lavar los tomates y chiles, cocerlos y luego agregarlos a la licuadora junto con la cebolla, el ajo y el cilantro picados finamente.
+En una cacerola con aceite caliente, agregar la cebolla picada y cocinar hasta que esté transparente.
+Agregar la salsa de tomate y chile a la cacerola y sazonar con sal y consomé de pollo al gusto.
+Dejar que la salsa hierva y espese un poco, agregar agua o caldo de pollo si es necesario.
+Agregar las tortitas de atún a la salsa y dejar que se cocinen junto con ella.
+Servir las tortitas de atún con la salsa y disfrutar.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': '2 latas de atún', 'Cantidad': '2'}, {'Ingrediente': '2 tazas de amarantho', 'Cantidad': '2'}, {'Ingrediente': '6 huevos', 'Cantidad': '6'}, {'Ingrediente': '1 kilo de tomate verde', 'Cantidad': '1'}, {'Ingrediente': 'la mitad de una cebolla', 'Cantidad': '0.5'}, {'Ingrediente': 'unas ramitas de cilantro', 'Cantidad': 'unas'}, {'Ingrediente': '1 diente de ajo', 'Cantidad': '1'}, {'Ingrediente': 'chiles verde al gusto', 'Cantidad': 'al gusto'}, {'Ingrediente': 'suficiente aceite', 'Cantidad': 'suficiente'}, {'Ingrediente': 'sal', 'Cantidad': 'sal'}, {'Ingrediente': 'consume de pollo al gusto', 'Cantidad': 'al gusto'}]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>static/img/o5QA6xBa45Q.jpg</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hola a su canal nadie más con Alex, yo soy Alex y les quiero compartir una rica 2 zeta de unas tortitas de atún con abaranto a hogar a sensar saber, espero les guste, pasemos a ver nuestros ingredientes y nuestros ingredientes son 2 latas de atún, 2 tazas de amarantho, 6 huevos, 1 kilo de tomate verde, la mitad de una cebolla, unas ramitas de cilantro, 1 diente de ajo, chiles verde salgusto, suficiente aceite sal y consume de pollo al gusto, empezamos a elaborar, bueno pueden observar, ya agregué 2 latas de atún junto con las 2 tazas de amarantho, yo agregué sal ya la atún con tiene sal ustedes gustan pueden hacer, ya mezcle atun con el amarantho agregaré el huevo y empezar a revolverlo perfectamente yo yo tengo en la estufa talentando aceite para empezar a formar nuestras tortitas de atún ya hayamos mezclado nuestros ingredientes, empezaremos a formar nuestras tortitas pasando las en aceite y con cuidado se vean a quemar, posteriormente las pondremos en papel absolutamente para empezar a realizar nuestras alzas en las van a ir a hogaras, ya hayamos lavado nuestros tomates junto con nuestros chiles, les pondremos a cocen y en el primer erbo quitamos y los agregamos a la licuadora junto con nuestra cebolla, nuestro ajo y nuestro cilante, finamente picado para le cueste trabajo al moler, ya hemos molido nuestras alzas en una cacerola con aceite caliente agregaremos tantitas cebolla y al final, esta será para dar un poco más de sabor a nuestro asociado, ya este cristalina agregaremos nuestras alzas y a su vez empezaremos a zonar con sal y con sombre de polio, dejaremos se zonne y le hace falta un poquito más de agua porque está en spesa agregaremos agua o caldo de puño, dejaremos se zonne nuevamente y agregaremos nuestras tortitas de atón para termine de cosas en nuestras asas junto con las tortitas, bueno, así es quedan a su receta del día de hoy, espero les haya gustado y es así, te invito a compartas este vídeo con y fanlins, también olvides en suscribirte y en la cajita de información podrás encontrar todas redes sociales en las cuales puedes seguir, más despido deseando al buen día hasta la próxima, bye!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6530b21ab638d23410c0da50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=37Xknr6QVJY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tortitas de papa con atún</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hola cocineritos hermosas de YouTube, sean a su canal de cocinando con ángel.
+Hoy vamos a preparar una receta y y además económica, para esta temporada de cuárezba.
+Vamos a preparar unas tortitas de papa con atún quedan para chuparse los dedos.
+Bueno pues acompáyanme a prepararla y los ingredientes vamos a necesitar son los siguientes.
+Y para preparar tortitas vamos a utilizar 6 papas cocidas y peladas.
+2 huevos, 2 latas de atún, yo estoy utilizando en aceite, tú puedes utilizarlo en agua.
+1 poco de parmolido, 1,5 cebolla picada, pimienta negra, 1 poco de acuempolvo, bueno sal a necesaria y ahora sí vamos a preparar.
+Y primero vamos a hacer es triturar nuestras papas. Aquí las vamos a hacer puré.
+Ya tenemos todas las papas trituradas, en este momento le vamos a agregar la cebolla picada, 1 poco de sal, ajo empolvo, este es a su gusto, también le da un sabor delicioso. Pimienta negra y vamos a mezclarlo.
+Bueno en seguida agregamos los atunes, yo le retire la aceite, este debe de ser sin aceite o es en agua también se le debe de retirar el agua. Bueno en seguida le agregamos los atunes huevos y vamos a mezclarlo bien.
+Bueno por último vamos a agregarle el pan molido, yo se voy a agregar y cucharadas para así cuánto le agregué. Por pronto le voy a agregar 2 y vamos a mezclar a ver va quedando.
+Bueno ya tenemos la consistencia lista, en total yo le agregué 4 cucharadas de pan molido, ahora sí vamos a empezar a hacer tortitas, con las manos limpias vamos a formarlas.
+Esta ya va a ser del tamaño ustedes quieran, miren, así vamos a hacer todas las tortitas.
+Bueno ahora en un poco de aceite vamos a freír las tortitas.
+Bueno una vez ya están doraditos por un lado la vamos a voltear, miren y vamos a dejar dorar por este otro lado.
+Bueno ya están viendo doraditos por los dos lados los vamos a retirar y los vamos a poner en una servieta absorbente para dejen el exceso de grasa.
+Bueno aquí tenemos tortitas de papa con natun, vean nada más sabrosa quedaron, bueno pues yo estoy lista para probar.
+Bueno pues ahora sí llegó el momento más gusta vamos a probar, a mí se antoja darle una mordidita mejor, miren, riquísima de edad, están riquísimas, y acompañados con alcita mandera crean mequesón una delicia.
+Bueno les gustó la receta yo les pido ayuden a compartirla olviden dejarme su dedito arriba.
+Hasta luego gracias.
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': '6 papas cocidas y peladas', 'Cantidad': '6'}, {'Ingrediente': '2 huevos', 'Cantidad': '2'}, {'Ingrediente': '2 latas de atún', 'Cantidad': '2'}, {'Ingrediente': '1 poco de parmolido', 'Cantidad': '1'}, {'Ingrediente': '1,5 cebolla picada', 'Cantidad': '1,5'}, {'Ingrediente': 'pimienta negra', 'Cantidad': '1'}, {'Ingrediente': '1 poco de acuempolvo', 'Cantidad': '1'}, {'Ingrediente': 'sal a necesaria', 'Cantidad': 'necesaria'}]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>static/img/37Xknr6QVJY.jpg</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hola cocineritos hermosas de YouTube, sean a su canal de cocinando con ángel. Hoy vamos a preparar una receta y y además económica, para esta temporada de cuárezba. Vamos a preparar unas tortitas de papa con atún quedan para chuparse los dedos. Bueno pues acompáyanme a prepararla y los ingredientes vamos a necesitar son los siguientes. Y para preparar tortitas vamos a utilizar 6 papas cocidas y peladas. 2 huevos, 2 latas de atún, yo estoy utilizando en aceite, tú puedes utilizarlo en agua. 1 poco de parmolido, 1,5 cebolla picada, pimienta negra, 1 poco de acuempolvo, bueno sal a necesaria y ahora sí vamos a preparar. Y primero vamos a hacer es triturar nuestras papas. Aquí las vamos a hacer puré. Ya tenemos todas las papas trituradas, en este momento le vamos a agregar la cebolla picada, 1 poco de sal, ajo empolvo, este es a su gusto, también le da un sabor delicioso. Pimienta negra y vamos a mezclarlo. Bueno en seguida agregamos los atunes, yo le retire la aceite, este debe de ser sin aceite o es en agua también se le debe de retirar el agua. Bueno en seguida le agregamos los atunes huevos y vamos a mezclarlo bien. Bueno por último vamos a agregarle el pan molido, yo se voy a agregar y cucharadas para así cuánto le agregué. Por pronto le voy a agregar 2 y vamos a mezclar a ver va quedando. Bueno ya tenemos la consistencia lista, en total yo le agregué 4 cucharadas de pan molido, ahora sí vamos a empezar a hacer tortitas, con las manos limpias vamos a formarlas. Esta ya va a ser del tamaño ustedes quieran, miren, así vamos a hacer todas las tortitas. Bueno ahora en un poco de aceite vamos a freír las tortitas. Bueno una vez ya están doraditos por un lado la vamos a voltear, miren y vamos a dejar dorar por este otro lado. Bueno ya están viendo doraditos por los dos lados los vamos a retirar y los vamos a poner en una servieta absorbente para dejen el exceso de grasa. Bueno aquí tenemos tortitas de papa con natun, vean nada más sabrosa quedaron, bueno pues yo estoy lista para probar. Bueno pues ahora sí llegó el momento más gusta vamos a probar, a mí se antoja darle una mordidita mejor, miren, riquísima de edad, están riquísimas, y acompañados con alcita mandera crean mequesón una delicia. Bueno les gustó la receta yo les pido ayuden a compartirla olviden dejarme su dedito arriba. Hasta luego gracias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6530b4c1b638d23410c0da51</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7fX4JcV9XFk</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chiles Rellenos de Atún</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poner a hacer los chiles a fuego alto para quemar la cáscara
+Poner aceite en una sartén y freír la cebolla y el ajo
+Agregar tomillo y mejorana a la sartén
+Agregar las papas cocidas y cortadas en trocitos a la sartén
+Agregar el atún a la sartén
+Apagar el fuego y reservar
+Retirar la cáscara de los chiles
+Hacer una incisión en los chiles y retirar las semillas
+Rellenar los chiles con el atún
+Servir los chiles con crema
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'chiles', 'Cantidad': '2'}, {'Ingrediente': 'cebolla mediana', 'Cantidad': '1/4'}, {'Ingrediente': 'ajo', 'Cantidad': '1'}, {'Ingrediente': 'tomillo', 'Cantidad': '1.5'}, {'Ingrediente': 'mejorana', 'Cantidad': '1.5'}, {'Ingrediente': 'atún', 'Cantidad': '1 lata de 12 onzas'}, {'Ingrediente': 'sal', 'Cantidad': 'al gusto'}, {'Ingrediente': 'crema', 'Cantidad': 'al gusto'}, {'Ingrediente': 'aceite para freír', 'Cantidad': 'al gusto'}, {'Ingrediente': 'papas', 'Cantidad': '2'}]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>static/img/7fX4JcV9XFk.jpg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hola, espero se encuentren bien. Hoy les voy a compartir una receta de chiles rellenos de atún y voy a necesitar dos chiles. Nada más voy a preparar dos. Una cuarta parte de una cebolla mediana picada, un ajo finamente picado. 1.5 cucharadita de tomillo, puede ser fresco o seco. 1.5 cucharadita de mejorana. La mejorana es pariente del oregano. Es prima del oregano. 1 lata de atún de 12 onzas. Puede ser en agua o en aceite ustedes prefiera. Sal al gusto, crema y aceite para freír. Y dos papas cocidas y cortadas en trocitos. Voy a poner a hacer los chiles. 1.5 cucharadita de tomillo, es a fuego alto para se queme la cascarita. Bueno, para se toesten o para quede quemada. pongo en una bolsa plástica para sube y le retiran la piel. En esta santen voy a poner un poco de aceite, aproximadamente esa cantidad. Y voy a poner a freír la cebolla. El ajo. Agrego el tomillo, la mejorana. Está desquiliendo una roma deliciosos. Luego las papas. Pongo un poco de sal y agrego el atún. Ya está atún. Le apago y reservo. Por este lado ya están listos los chiles para retirar la cascara. Les hago una insición aquí para retirar las semillas. Por ocurrir tener cuidado se vayan a cortar. Después de están limpios y sin semillas los rellenamos con el atún. Ya están rellenos. Esta cantidad de ingredientes les dan canza hasta para 4 chiles o 6 le ponen un poquito menos de atún. Ya en el plato nada más le ponemos crema. Y miren delicia acompañado con unos fricolitos o arroz. Es para un platillo fuerte. siempre les saludos cariñosos a todos suscriptores a los están suscritos, también les saludos cariñosos y les invito a suscribirse al canal. La suscripción es completamente gratis y en la próxima ocasión.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6531f490e30efe89f93c2792</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0sKU0NIpOio</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bistec a la mexicana</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poner una cucharada de aceite en una sartén
+Agregar tres libras y media de bistec picado para tacos
+Agregar tres dientes de ajo picados y sal al gusto
+Revolver todo y dejar que se consuma el jugo de la carne
+Esperar de 30 a 35 minutos hasta que la carne esté dorada y guisada
+Agregar medio pimiento verde picado
+Agregar media cebolla picada
+Agregar 2 chiles serranos de sostenual
+Agregar 4 o 5 tomates picados
+Mezclar todos los ingredientes y cocinar por unos minutos más
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'aceite', 'Cantidad': '1'}, {'Ingrediente': 'bistec picado', 'Cantidad': '3.5'}, {'Ingrediente': 'ajo picado', 'Cantidad': '3'}, {'Ingrediente': 'sal', 'Cantidad': 'al gusto'}, {'Ingrediente': 'pimiento verde picado', 'Cantidad': '0.5'}, {'Ingrediente': 'cebolla picada', 'Cantidad': '0.5'}, {'Ingrediente': 'chiles serranos', 'Cantidad': '2'}, {'Ingrediente': 'tomates picados', 'Cantidad': '4-5'}]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>static/img/0sKU0NIpOio.jpg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hola hay estan gusto saludarles hoy les compartiré una receta de bistec a la mexicana y pondré una cucharada de aceite en esta sartén y agregaré tres libras y media de bistec picado para tacos una aproximadamente 2 kilogramos, es yo veré, les agregaramos tres dientes de agafo picados y sal al gusto revolvemos todo y ahí dejaremos hasta se le consuma el jugo a la carne y quede guisado ya esta lista nuestra carne miran tiene algunas partes ya doradas y tardó de 30 a 35 minutos en llegar a ese punto yo siempre les hago los vídeos cortitos de 3 4 minutos en realidad salta más ahora siguiendo el orden en el están los colores de la bandera agregaremos medio pimiento verde picado aunque el orden en realidad importa luego media se voy a medían a picada también y le vamos a agregar 2 ciles cerranos de sostenual pueden agregarle solamente chile picante o solamente el chile de pimiento y por último le agregaramos 4 o 5 kilomates picados ya está nuestro delicioso guiso la pagamos gracias siempre les saludos cariñosos les invito a suscribirse es completamente gratis y por aquí miraremos en la próxima ocasión tiene una aroma exquisito</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6532004fe30efe89f93c2793</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=DGLsFFabppE&amp;t=41s</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rollitos de bistec de res rellenos de verdura</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilizar alrededor de medio kilo de bistec de res
+Freír la calabacita en rodajas en aceite
+Marinar la carne previamente en cerveza
+Agregar salsa de soja a la carne
+Agregar pimienta, orégano y sal a la carne
+Añadir queso a la carne
+Agregar verduras al rollito de carne
+Cocinar los rollitos en aceite
+Servir y disfrutar de los rollitos rellenos de verdura
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'bistec de res', 'Cantidad': 'medio kilo'}, {'Ingrediente': 'aceite para freír', 'Cantidad': 'al gusto'}, {'Ingrediente': 'calabacita en culenas', 'Cantidad': 'una'}, {'Ingrediente': 'zona oro', 'Cantidad': 'al gusto'}, {'Ingrediente': 'culenas salco', 'Cantidad': 'al gusto'}, {'Ingrediente': 'najo', 'Cantidad': 'al gusto'}, {'Ingrediente': 'oregano', 'Cantidad': 'al gusto'}, {'Ingrediente': 'pimienta', 'Cantidad': 'al gusto'}, {'Ingrediente': 'un diente de ajo', 'Cantidad': 'uno'}, {'Ingrediente': 'manchego o queso de su preferencia', 'Cantidad': 'al gusto'}, {'Ingrediente': 'cerveza para marinar', 'Cantidad': 'un poco'}, {'Ingrediente': 'salsa de sol', 'Cantidad': 'al gusto'}, {'Ingrediente': 'verdura', 'Cantidad': 'opcional'}, {'Ingrediente': 'resto de los ingredientes', 'Cantidad': 'al gusto'}, {'Ingrediente': 'aceite', 'Cantidad': 'un poco'}, {'Ingrediente': 'poquito', 'Cantidad': 'al gusto'}, {'Ingrediente': 'sal', 'Cantidad': 'al gusto'}, {'Ingrediente': 'queso', 'Cantidad': 'al gusto'}, {'Ingrediente': 'verduras', 'Cantidad': 'al gusto'}]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>static/img/DGLsFFabppE&amp;t=41s.jpg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>y para esta receta vamos a utilizar alrededor de medio kilo de bistec de res aceite para freír una calabacita en culenas una zona oro y culenas salco, najo, oregano, pimienta, un diente de ajo es un manchebo o queso de su preferencia, vamos a utilizar también un poco de cerveza para marinar previamente la carne, eso es al gusto y es un tip adicional les puedo dar pueden hacerlo antes de comenzar a hacer los rollitos o no, esté preferer podemos dejarlo así, vamos a poner en un bowl un poco de cerveza y vamos a introducir nuestros visteses en un sartén vamos a poner un poco de aceite para freír voy a agregar un poco de salsa de sol ya la verdura es opcional vamos a hacer nuestro rollo justo vamos a hacer esto vamos a hacer el resto, tomamos nuestro bistec mandado previamente en cerveza y vamos a añadirle un poco de pimienta vamos a fesornarlo con el resto los ingredientes oregano, sal puede ser salco najo o salco se voy a sosteses de preferencia al gusto y vamos a poner un poco de queso y vamos a agregar nuestras verduras y el rollamos así está el cuerpo vamos a sal y vamos a poner un poco de aceite y vamos a poner nuestro poquito y vamos a cocinar por suBa. El resultado de nuestros rollitos, rellenos de verdura, la verdad es deliciosos, es una buena opción ideas para hacer un bistec de res y es una super fácil, es una receta super estoy seguro les va a encantar. alguna duda sobre esta receta, ponen consultala en la parte inferior de este video, olviden suscribirse a canal, muchas gracias, hasta la próxima disfruté.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>653201b2e30efe89f93c2794</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jRYiOBAI7aU</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Croquetas de adun</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pollar la cebolla
+Añadir una pizca de sal y dejar a fuego lento
+Calentar la leche
+Añadir la harina y mezclar
+Añadir la leche poco a poco
+Añadir el adun y el perejil y mezclar bien
+Rectificar de sal y menta
+Cocinar hasta que la masa se separe del recipiente
+Pasar a una fuente y dejar enfriar
+Boler la masa y empanar
+Freír las croquetas en aceite caliente
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[{'Ingrediente': 'Un litro de leche', 'Cantidad': '1'}, {'Ingrediente': '120 gr de mantequilla', 'Cantidad': '120'}, {'Ingrediente': '120 gr de harina', 'Cantidad': '120'}, {'Ingrediente': 'perejil', 'Cantidad': '1'}, {'Ingrediente': '150 gr de cebolleta', 'Cantidad': '150'}, {'Ingrediente': '300 gr de adun', 'Cantidad': '300'}]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>static/img/jRYiOBAI7aU.jpg</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ahora buenas, aquí estamos en Cocina con Luis. Bovintamos a preparar unas croquetas caseras de adun. Y para ello vamos a necesitar los sientes ingredientes. Un litro de leche, 120 gr de mantequilla y 120 gr de harina, perejil, 150 gr de cebolleta y 300 gr de adun. Empezaremos pollando la cebolla. Ellamos una pizca de sal y dejamos a fuego lento. Mientras tanto calentamos la leche. tenemos la cebolla pollada y a punto de caramelizar, añadimos la harina y le daremos una vuelta. A continuación añadimos la leche poco a poco. Una vez hemos echado toda la leche, se los quedará con una despura y po' pellamén. Ahora haremos será añadir el adun y el perejil. Te integramos todo bien. Serar momento de rectificar de sal y mienta y es mocado. O dejaremos cocinar hasta la masa se separe por completo de recipiente. Aquí se puede ver la masa se separa por sí sola. Ya tendríamos las croquetas terminadas. Por último pasaremos a una fuente hasta se enfrié. Es importante tapar la superficie a ras para cree ningún tipo de costra. Una vez la masa ya se ha enfriado, haremos será bolerla y las empanaremos. Para posteriormente poder la freguer. Para freguer las croquetas es necesario la seitte esté caliente, ya son unas croquetas cremosas. Bueno amigos, aquí está el resultado final. han visto es una receta de hacer. siempre digo, ya motivos para comprarlo y sí para hacerlo. Espero les haya gustado. sobién de suscribirse y seguirme en Facebook en Instagram. en el próximo vídeo.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
